--- a/doc/직원연락처21.03.02 - 작업용.xlsx
+++ b/doc/직원연락처21.03.02 - 작업용.xlsx
@@ -2499,6 +2499,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2508,27 +2568,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2551,45 +2590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2946,9 +2946,9 @@
   <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H33" sqref="H33"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3012,7 +3012,7 @@
       <c r="E2" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4" t="s">
         <v>442</v>
       </c>
@@ -3060,31 +3060,31 @@
       <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="88" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="101" t="s">
         <v>447</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="85" t="s">
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="98" t="s">
         <v>449</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="105"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
       <c r="G4" s="18">
         <v>1</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="E5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="18">
         <v>2</v>
       </c>
@@ -3148,13 +3148,13 @@
       <c r="K5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="90"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
@@ -3172,7 +3172,7 @@
       <c r="E6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="20">
         <v>3</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="44"/>
-      <c r="F7" s="107"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="18">
         <v>4</v>
       </c>
@@ -3243,14 +3243,14 @@
       </c>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="98" t="s">
         <v>451</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="105"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="18">
         <v>5</v>
       </c>
@@ -3283,14 +3283,14 @@
       </c>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="101" t="s">
         <v>452</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="108"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="20">
         <v>6</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="E10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="5">
         <v>7</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="51"/>
-      <c r="F11" s="109"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="18">
         <v>8</v>
       </c>
@@ -3409,14 +3409,14 @@
       </c>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="101" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="108"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3454,14 +3454,14 @@
       <c r="E13" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="88" t="s">
+      <c r="F13" s="88"/>
+      <c r="G13" s="101" t="s">
         <v>454</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="20">
         <v>8</v>
       </c>
@@ -3494,7 +3494,7 @@
       <c r="E14" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="F14" s="107"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="18">
         <v>1</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="E15" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="107"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="18">
         <v>2</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="43"/>
-      <c r="F16" s="110"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="18">
         <v>3</v>
       </c>
@@ -3617,14 +3617,14 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="105"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="18">
         <v>4</v>
       </c>
@@ -3657,14 +3657,14 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="101" t="s">
         <v>456</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="108"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="18">
         <v>5</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="E19" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="106"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="18">
         <v>6</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="E20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="106"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="18">
         <v>7</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="E21" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F21" s="111"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="18">
         <v>8</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="E22" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F22" s="111"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="18">
         <v>9</v>
       </c>
@@ -3862,13 +3862,13 @@
       <c r="K22" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="L22" s="88" t="s">
+      <c r="L22" s="101" t="s">
         <v>457</v>
       </c>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="103"/>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
@@ -3876,7 +3876,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="106"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="18">
         <v>10</v>
       </c>
@@ -3909,14 +3909,14 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="101" t="s">
         <v>458</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="108"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="18">
         <v>11</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="E25" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="111"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="18">
         <v>12</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="E26" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="18">
         <v>13</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="44"/>
-      <c r="F27" s="107"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -4073,21 +4073,21 @@
       </c>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="88" t="s">
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="101" t="s">
         <v>460</v>
       </c>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="103"/>
       <c r="L28" s="18">
         <v>6</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="E29" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="106"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="18">
         <v>1</v>
       </c>
@@ -4143,14 +4143,14 @@
       <c r="P29" s="44"/>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="101" t="s">
         <v>462</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="108"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="18">
         <v>2</v>
       </c>
@@ -4166,13 +4166,13 @@
       <c r="K30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="88" t="s">
+      <c r="L30" s="101" t="s">
         <v>461</v>
       </c>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="103"/>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
@@ -4190,7 +4190,7 @@
       <c r="E31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="106"/>
+      <c r="F31" s="88"/>
       <c r="G31" s="18">
         <v>3</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="E32" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="106"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="18">
         <v>4</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="E33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="106"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="18">
         <v>5</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="E34" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="106"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="18">
         <v>6</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="E35" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="106"/>
+      <c r="F35" s="88"/>
       <c r="G35" s="18">
         <v>7</v>
       </c>
@@ -4430,7 +4430,7 @@
       <c r="E36" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="106"/>
+      <c r="F36" s="88"/>
       <c r="G36" s="18">
         <v>8</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="E37" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="F37" s="110"/>
+      <c r="F37" s="92"/>
       <c r="G37" s="18">
         <v>9</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="E38" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F38" s="106"/>
+      <c r="F38" s="88"/>
       <c r="G38" s="18">
         <v>10</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="E39" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="106"/>
+      <c r="F39" s="88"/>
       <c r="G39" s="18">
         <v>11</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="E40" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="F40" s="111"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="18">
         <v>12</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="E41" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="F41" s="107"/>
+      <c r="F41" s="89"/>
       <c r="G41" s="18">
         <v>13</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="E42" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="F42" s="110"/>
+      <c r="F42" s="92"/>
       <c r="G42" s="18"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -4756,14 +4756,14 @@
       <c r="E43" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="112"/>
-      <c r="G43" s="88" t="s">
+      <c r="F43" s="94"/>
+      <c r="G43" s="101" t="s">
         <v>463</v>
       </c>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="90"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="103"/>
       <c r="L43" s="18">
         <v>13</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="E44" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="113"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="18">
         <v>1</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="110"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="18">
         <v>2</v>
       </c>
@@ -4857,14 +4857,14 @@
       <c r="P45" s="44"/>
     </row>
     <row r="46" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="101" t="s">
         <v>464</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="108"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="90"/>
       <c r="G46" s="18">
         <v>3</v>
       </c>
@@ -4880,13 +4880,13 @@
       <c r="K46" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L46" s="88" t="s">
+      <c r="L46" s="101" t="s">
         <v>465</v>
       </c>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="90"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="103"/>
     </row>
     <row r="47" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
@@ -4904,9 +4904,9 @@
       <c r="E47" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="106" t="str">
-        <f>"INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;A47&amp;"','"&amp;D47&amp;"','"&amp;B47&amp;"','"&amp;C47&amp;"','"&amp;E47&amp;"', NOW(), NOW());"</f>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('1','010-5348-1868','상무','김하정','hjkim@en-core.com', NOW(), NOW());</v>
+      <c r="F47" s="88" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$46&amp;"', '"&amp;A47&amp;"','"&amp;D47&amp;"','"&amp;B47&amp;"','"&amp;C47&amp;"','"&amp;E47&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '1','010-5348-1868','상무','김하정','hjkim@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G47" s="18">
         <v>4</v>
@@ -4955,9 +4955,9 @@
       <c r="E48" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="106" t="str">
-        <f t="shared" ref="F48:F61" si="0">"INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;A48&amp;"','"&amp;D48&amp;"','"&amp;B48&amp;"','"&amp;C48&amp;"','"&amp;E48&amp;"', NOW(), NOW());"</f>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('2','010-3294-7130','이사','김형연','hykim@en-core.com', NOW(), NOW());</v>
+      <c r="F48" s="88" t="str">
+        <f t="shared" ref="F48:F61" si="0">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$46&amp;"', '"&amp;A48&amp;"','"&amp;D48&amp;"','"&amp;B48&amp;"','"&amp;C48&amp;"','"&amp;E48&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '2','010-3294-7130','이사','김형연','hykim@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="8"/>
@@ -4996,9 +4996,9 @@
       <c r="E49" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="106" t="str">
+      <c r="F49" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('3','010-9412-6683','이사','안근우','keunwoo.ahn@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '3','010-9412-6683','이사','안근우','keunwoo.ahn@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G49" s="18">
         <v>1</v>
@@ -5047,9 +5047,9 @@
       <c r="E50" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="106" t="str">
+      <c r="F50" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('4','010-9925-9805','이사','윤현준','hjyoon@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '4','010-9925-9805','이사','윤현준','hjyoon@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="8"/>
@@ -5088,17 +5088,17 @@
       <c r="E51" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="106" t="str">
+      <c r="F51" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('5','010-2720-7447','수석','정진백','jbjung@en-core.com', NOW(), NOW());</v>
-      </c>
-      <c r="G51" s="88" t="s">
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '5','010-2720-7447','수석','정진백','jbjung@en-core.com', NOW(), NOW());</v>
+      </c>
+      <c r="G51" s="101" t="s">
         <v>466</v>
       </c>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="90"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="103"/>
       <c r="L51" s="5">
         <v>5</v>
       </c>
@@ -5131,9 +5131,9 @@
       <c r="E52" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F52" s="106" t="str">
+      <c r="F52" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('6','010-6410-1750','수석','조태건','ctg@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '6','010-6410-1750','수석','조태건','ctg@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G52" s="18">
         <v>1</v>
@@ -5182,9 +5182,9 @@
       <c r="E53" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F53" s="106" t="str">
+      <c r="F53" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('7','010-4787-7114','수석','위호규','hkwee@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '7','010-4787-7114','수석','위호규','hkwee@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="8"/>
@@ -5213,24 +5213,24 @@
       <c r="E54" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="F54" s="106" t="str">
+      <c r="F54" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('8','010-3950-6317','수석','김균도','k2d@en-core.com', NOW(), NOW());</v>
-      </c>
-      <c r="G54" s="91" t="s">
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '8','010-3950-6317','수석','김균도','k2d@en-core.com', NOW(), NOW());</v>
+      </c>
+      <c r="G54" s="98" t="s">
         <v>470</v>
       </c>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="91" t="s">
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="98" t="s">
         <v>467</v>
       </c>
-      <c r="M54" s="92"/>
-      <c r="N54" s="92"/>
-      <c r="O54" s="92"/>
-      <c r="P54" s="93"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
+      <c r="P54" s="100"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18">
@@ -5248,9 +5248,9 @@
       <c r="E55" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="106" t="str">
+      <c r="F55" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('9','010-4809-0287','수석','노길도','nf@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '9','010-4809-0287','수석','노길도','nf@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
@@ -5299,9 +5299,9 @@
       <c r="E56" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="F56" s="106" t="str">
+      <c r="F56" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('10','010-4031-3855','책임','김윤전','yunjeon_kim@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '10','010-4031-3855','책임','김윤전','yunjeon_kim@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G56" s="5">
         <v>2</v>
@@ -5318,13 +5318,13 @@
       <c r="K56" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L56" s="88" t="s">
+      <c r="L56" s="101" t="s">
         <v>471</v>
       </c>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="90"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="103"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18">
@@ -5342,9 +5342,9 @@
       <c r="E57" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="106" t="str">
+      <c r="F57" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('11','010-3836-9574','선임','박재현','jhpark@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '11','010-3836-9574','선임','박재현','jhpark@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G57" s="5">
         <v>3</v>
@@ -5393,9 +5393,9 @@
       <c r="E58" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="F58" s="106" t="str">
+      <c r="F58" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('12','010-9814-7005','선임','손미나','mnsohn@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '12','010-9814-7005','선임','손미나','mnsohn@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G58" s="5">
         <v>4</v>
@@ -5444,9 +5444,9 @@
       <c r="E59" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="106" t="str">
+      <c r="F59" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('13','010-3130-2304','선임','오윤정','yj.oh@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '13','010-3130-2304','선임','오윤정','yj.oh@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G59" s="5">
         <v>5</v>
@@ -5485,9 +5485,9 @@
       <c r="E60" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F60" s="106" t="str">
+      <c r="F60" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('14','010-7217-2739','전임','신동현','kyleshin@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '14','010-7217-2739','전임','신동현','kyleshin@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G60" s="5">
         <v>6</v>
@@ -5504,13 +5504,13 @@
       <c r="K60" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="L60" s="88" t="s">
+      <c r="L60" s="101" t="s">
         <v>472</v>
       </c>
-      <c r="M60" s="89"/>
-      <c r="N60" s="89"/>
-      <c r="O60" s="89"/>
-      <c r="P60" s="90"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="103"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
@@ -5528,9 +5528,9 @@
       <c r="E61" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F61" s="106" t="str">
+      <c r="F61" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO TB_EMP (EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('15','010-9355-0924','전임','정영은','jye0924@en-core.com', NOW(), NOW());</v>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '15','010-9355-0924','전임','정영은','jye0924@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G61" s="5">
         <v>7</v>
@@ -5569,7 +5569,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="43"/>
-      <c r="F62" s="110"/>
+      <c r="F62" s="92"/>
       <c r="G62" s="18"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -5597,14 +5597,14 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="110"/>
-      <c r="G63" s="91" t="s">
+      <c r="F63" s="92"/>
+      <c r="G63" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="93"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="100"/>
       <c r="L63" s="18">
         <v>6</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="110"/>
+      <c r="F64" s="92"/>
       <c r="G64" s="5">
         <v>1</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="43"/>
-      <c r="F65" s="110"/>
+      <c r="F65" s="92"/>
       <c r="G65" s="5">
         <v>2</v>
       </c>
@@ -5671,13 +5671,13 @@
       <c r="K65" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="L65" s="88" t="s">
+      <c r="L65" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="M65" s="89"/>
-      <c r="N65" s="89"/>
-      <c r="O65" s="89"/>
-      <c r="P65" s="90"/>
+      <c r="M65" s="104"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="103"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="20"/>
@@ -5685,7 +5685,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="43"/>
-      <c r="F66" s="110"/>
+      <c r="F66" s="92"/>
       <c r="G66" s="5">
         <v>3</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="43"/>
-      <c r="F67" s="110"/>
+      <c r="F67" s="92"/>
       <c r="G67" s="5">
         <v>4</v>
       </c>
@@ -5751,19 +5751,19 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="43"/>
-      <c r="F68" s="110"/>
+      <c r="F68" s="92"/>
       <c r="G68" s="5"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="24"/>
-      <c r="L68" s="88" t="s">
+      <c r="L68" s="101" t="s">
         <v>475</v>
       </c>
-      <c r="M68" s="94"/>
-      <c r="N68" s="94"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="90"/>
+      <c r="M68" s="102"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="102"/>
+      <c r="P68" s="103"/>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="20"/>
@@ -5771,7 +5771,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="43"/>
-      <c r="F69" s="110"/>
+      <c r="F69" s="92"/>
       <c r="G69" s="18"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -5797,7 +5797,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="110"/>
+      <c r="F70" s="92"/>
       <c r="G70" s="18"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -5823,7 +5823,7 @@
       <c r="C71" s="78"/>
       <c r="D71" s="78"/>
       <c r="E71" s="79"/>
-      <c r="F71" s="114"/>
+      <c r="F71" s="96"/>
       <c r="G71" s="80"/>
       <c r="H71" s="81"/>
       <c r="I71" s="81"/>
@@ -5849,7 +5849,7 @@
       <c r="C72" s="78"/>
       <c r="D72" s="78"/>
       <c r="E72" s="79"/>
-      <c r="F72" s="114"/>
+      <c r="F72" s="96"/>
       <c r="G72" s="80"/>
       <c r="H72" s="81"/>
       <c r="I72" s="81"/>
@@ -5875,7 +5875,7 @@
       <c r="C73" s="78"/>
       <c r="D73" s="78"/>
       <c r="E73" s="79"/>
-      <c r="F73" s="114"/>
+      <c r="F73" s="96"/>
       <c r="G73" s="80"/>
       <c r="H73" s="81"/>
       <c r="I73" s="81"/>
@@ -5901,7 +5901,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="42"/>
-      <c r="F74" s="115"/>
+      <c r="F74" s="97"/>
       <c r="G74" s="52"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -5915,17 +5915,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="L65:P65"/>
-    <mergeCell ref="L68:P68"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="G51:K51"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="L56:P56"/>
@@ -5942,6 +5931,17 @@
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="G13:K13"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="L65:P65"/>
+    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="G54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6066,29 +6066,29 @@
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="108" t="s">
         <v>447</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="111" t="s">
         <v>448</v>
       </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="100"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="98" t="s">
         <v>515</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="101"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="34">
         <v>1</v>
       </c>
@@ -6137,13 +6137,13 @@
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="60"/>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="108" t="s">
         <v>450</v>
       </c>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="97"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -6212,13 +6212,13 @@
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="115" t="s">
         <v>512</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="34">
         <v>5</v>
       </c>
@@ -6243,13 +6243,13 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="101" t="s">
         <v>510</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="35">
         <v>6</v>
       </c>
@@ -6338,13 +6338,13 @@
       <c r="O11" s="72"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="108" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="38"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -6374,13 +6374,13 @@
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="60"/>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="108" t="s">
         <v>454</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
       <c r="K13" s="35">
         <v>8</v>
       </c>
@@ -6497,13 +6497,13 @@
       <c r="O16" s="69"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="111" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="34">
         <v>4</v>
       </c>
@@ -6528,13 +6528,13 @@
       <c r="O17" s="64"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="34">
         <v>5</v>
       </c>
@@ -6680,13 +6680,13 @@
       </c>
       <c r="I22" s="61"/>
       <c r="J22" s="67"/>
-      <c r="K22" s="95" t="s">
+      <c r="K22" s="108" t="s">
         <v>457</v>
       </c>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="97"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="110"/>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
@@ -6718,13 +6718,13 @@
       <c r="O23" s="60"/>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="108" t="s">
         <v>458</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="34">
         <v>11</v>
       </c>
@@ -6842,20 +6842,20 @@
       <c r="O27" s="72"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="111" t="s">
         <v>459</v>
       </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="95" t="s">
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="108" t="s">
         <v>460</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="110"/>
       <c r="K28" s="34">
         <v>6</v>
       </c>
@@ -6900,13 +6900,13 @@
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="108" t="s">
         <v>462</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="34">
         <v>2</v>
       </c>
@@ -6918,13 +6918,13 @@
       </c>
       <c r="I30" s="34"/>
       <c r="J30" s="60"/>
-      <c r="K30" s="95" t="s">
+      <c r="K30" s="108" t="s">
         <v>461</v>
       </c>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="97"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="110"/>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34">
@@ -7352,13 +7352,13 @@
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="74"/>
-      <c r="F43" s="95" t="s">
+      <c r="F43" s="108" t="s">
         <v>463</v>
       </c>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="97"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="110"/>
       <c r="K43" s="34">
         <v>13</v>
       </c>
@@ -7430,13 +7430,13 @@
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="108" t="s">
         <v>464</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="97"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="110"/>
       <c r="F46" s="34">
         <v>3</v>
       </c>
@@ -7448,13 +7448,13 @@
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="60"/>
-      <c r="K46" s="95" t="s">
+      <c r="K46" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="97"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="109"/>
+      <c r="O46" s="110"/>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34">
@@ -7596,13 +7596,13 @@
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="60"/>
-      <c r="F51" s="95" t="s">
+      <c r="F51" s="108" t="s">
         <v>466</v>
       </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="97"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
       <c r="K51" s="38">
         <v>5</v>
       </c>
@@ -7685,20 +7685,20 @@
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="59"/>
-      <c r="F54" s="98" t="s">
+      <c r="F54" s="111" t="s">
         <v>470</v>
       </c>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="98" t="s">
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="111" t="s">
         <v>467</v>
       </c>
-      <c r="L54" s="99"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="99"/>
-      <c r="O54" s="100"/>
+      <c r="L54" s="112"/>
+      <c r="M54" s="112"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="113"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="34">
@@ -7758,13 +7758,13 @@
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="61"/>
-      <c r="K56" s="95" t="s">
+      <c r="K56" s="108" t="s">
         <v>471</v>
       </c>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="97"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="109"/>
+      <c r="O56" s="110"/>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="34">
@@ -7888,13 +7888,13 @@
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="68"/>
-      <c r="K60" s="95" t="s">
+      <c r="K60" s="108" t="s">
         <v>472</v>
       </c>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="97"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="109"/>
+      <c r="O60" s="110"/>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="34">
@@ -7960,13 +7960,13 @@
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
-      <c r="F63" s="98" t="s">
+      <c r="F63" s="111" t="s">
         <v>474</v>
       </c>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="100"/>
+      <c r="G63" s="112"/>
+      <c r="H63" s="112"/>
+      <c r="I63" s="112"/>
+      <c r="J63" s="113"/>
       <c r="K63" s="34">
         <v>6</v>
       </c>
@@ -8019,13 +8019,13 @@
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="61"/>
-      <c r="K65" s="95" t="s">
+      <c r="K65" s="108" t="s">
         <v>473</v>
       </c>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="97"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="109"/>
+      <c r="O65" s="110"/>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="35"/>
@@ -8090,13 +8090,13 @@
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
       <c r="J68" s="34"/>
-      <c r="K68" s="95" t="s">
+      <c r="K68" s="108" t="s">
         <v>475</v>
       </c>
-      <c r="L68" s="96"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="96"/>
-      <c r="O68" s="97"/>
+      <c r="L68" s="109"/>
+      <c r="M68" s="109"/>
+      <c r="N68" s="109"/>
+      <c r="O68" s="110"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="35"/>
@@ -8232,6 +8232,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="K46:O46"/>
@@ -8243,22 +8259,6 @@
     <mergeCell ref="K60:O60"/>
     <mergeCell ref="F63:J63"/>
     <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/doc/직원연락처21.03.02 - 작업용.xlsx
+++ b/doc/직원연락처21.03.02 - 작업용.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="538">
   <si>
     <t>thkim@en-core.com</t>
   </si>
@@ -1837,7 +1837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2198,15 +2198,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -2224,17 +2215,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2243,7 +2223,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2475,15 +2455,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,40 +2476,43 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2547,25 +2524,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2608,49 +2567,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>898478</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>7059</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="896471" y="13122088"/>
-          <a:ext cx="10838095" cy="1800000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2943,12 +2859,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H33" sqref="H33"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131:F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3012,7 +2928,7 @@
       <c r="E2" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4" t="s">
         <v>442</v>
       </c>
@@ -3060,31 +2976,34 @@
       <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="101" t="s">
+      <c r="F3" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('대표이사', '"&amp;A3&amp;"','"&amp;D3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;E3&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('대표이사', '1','010-5270-1868','대표이사','이화식','hslee@en-core.com', NOW(), NOW());</v>
+      </c>
+      <c r="G3" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="105" t="s">
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="91" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="107"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="87"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="18">
         <v>1</v>
       </c>
@@ -3132,7 +3051,10 @@
       <c r="E5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$4&amp;"', '"&amp;A5&amp;"','"&amp;D5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;E5&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('사업,기술총괄부문', '2','010-3012-5868','부사장','김동훈','skdh01@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G5" s="18">
         <v>2</v>
       </c>
@@ -3148,13 +3070,13 @@
       <c r="K5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="101" t="s">
+      <c r="L5" s="94" t="s">
         <v>450</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="103"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
@@ -3172,7 +3094,10 @@
       <c r="E6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="88"/>
+      <c r="F6" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$4&amp;"', '"&amp;A6&amp;"','"&amp;D6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;E6&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('사업,기술총괄부문', '3','010-3956-5868','부사장','명재호','jhmyung@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G6" s="20">
         <v>3</v>
       </c>
@@ -3210,7 +3135,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="44"/>
-      <c r="F7" s="89"/>
+      <c r="F7" s="86"/>
       <c r="G7" s="18">
         <v>4</v>
       </c>
@@ -3243,14 +3168,14 @@
       </c>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>451</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="87"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="18">
         <v>5</v>
       </c>
@@ -3283,14 +3208,14 @@
       </c>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="87"/>
       <c r="G9" s="20">
         <v>6</v>
       </c>
@@ -3338,7 +3263,10 @@
       <c r="E10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="88"/>
+      <c r="F10" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$9&amp;"', '"&amp;A10&amp;"','"&amp;D10&amp;"','"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;E10&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('영업1팀', '1','010-5447-4155','이사','임병하','bhlim@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G10" s="5">
         <v>7</v>
       </c>
@@ -3376,7 +3304,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="51"/>
-      <c r="F11" s="91"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="18">
         <v>8</v>
       </c>
@@ -3409,14 +3337,14 @@
       </c>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="94" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="90"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3454,14 +3382,17 @@
       <c r="E13" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="101" t="s">
+      <c r="F13" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$13&amp;"', '"&amp;A13&amp;"','"&amp;D13&amp;"','"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;E13&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('2', '2','010-3623-9605','이사','고경진','kjko@en-core.com', NOW(), NOW());</v>
+      </c>
+      <c r="G13" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="103"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="20">
         <v>8</v>
       </c>
@@ -3494,7 +3425,10 @@
       <c r="E14" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="85" t="str">
+        <f t="shared" ref="F14:F15" si="0">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$13&amp;"', '"&amp;A14&amp;"','"&amp;D14&amp;"','"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;E14&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('2', '3','010-2215-3496','부장','이승수','lss1414@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G14" s="18">
         <v>1</v>
       </c>
@@ -3542,7 +3476,10 @@
       <c r="E15" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('2', '4','010-5067-9974','대리','박은찬','ecp91@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G15" s="18">
         <v>2</v>
       </c>
@@ -3584,7 +3521,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="43"/>
-      <c r="F16" s="92"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="18">
         <v>3</v>
       </c>
@@ -3617,14 +3554,14 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="97" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="87"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="18">
         <v>4</v>
       </c>
@@ -3657,14 +3594,14 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="94" t="s">
         <v>456</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="90"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="18">
         <v>5</v>
       </c>
@@ -3712,7 +3649,10 @@
       <c r="E19" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="88"/>
+      <c r="F19" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$18&amp;"', '"&amp;A19&amp;"','"&amp;D19&amp;"','"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;E19&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('경영지원팀', '1','010-3038-5868','전무','김태형','thkim@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G19" s="18">
         <v>6</v>
       </c>
@@ -3760,7 +3700,10 @@
       <c r="E20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="88"/>
+      <c r="F20" s="85" t="str">
+        <f t="shared" ref="F20:F22" si="1">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$18&amp;"', '"&amp;A20&amp;"','"&amp;D20&amp;"','"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;E20&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('경영지원팀', '2','010-8817-5868','차장','임효정','hjlim@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G20" s="18">
         <v>7</v>
       </c>
@@ -3776,19 +3719,19 @@
       <c r="K20" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="83">
+      <c r="L20" s="81">
         <v>15</v>
       </c>
-      <c r="M20" s="78" t="s">
+      <c r="M20" s="77" t="s">
         <v>527</v>
       </c>
-      <c r="N20" s="78" t="s">
+      <c r="N20" s="77" t="s">
         <v>528</v>
       </c>
-      <c r="O20" s="78" t="s">
+      <c r="O20" s="77" t="s">
         <v>520</v>
       </c>
-      <c r="P20" s="84" t="s">
+      <c r="P20" s="82" t="s">
         <v>521</v>
       </c>
     </row>
@@ -3808,7 +3751,10 @@
       <c r="E21" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F21" s="93"/>
+      <c r="F21" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('경영지원팀', '3','010-8754-6347','과장','최선영','csy@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G21" s="18">
         <v>8</v>
       </c>
@@ -3846,7 +3792,10 @@
       <c r="E22" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('경영지원팀', '4','010-6266-6479','사원','안지혜','ajh@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G22" s="18">
         <v>9</v>
       </c>
@@ -3862,13 +3811,13 @@
       <c r="K22" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="L22" s="101" t="s">
+      <c r="L22" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="103"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
@@ -3876,7 +3825,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="88"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="18">
         <v>10</v>
       </c>
@@ -3909,14 +3858,14 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="94" t="s">
         <v>458</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="90"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="18">
         <v>11</v>
       </c>
@@ -3964,7 +3913,10 @@
       <c r="E25" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="93"/>
+      <c r="F25" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$24&amp;"', '"&amp;A25&amp;"','"&amp;D25&amp;"','"&amp;B25&amp;"','"&amp;C25&amp;"','"&amp;E25&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('마케팅팀', '1','010-3776-6547','이사','김진희','ginny@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G25" s="18">
         <v>12</v>
       </c>
@@ -4012,7 +3964,10 @@
       <c r="E26" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="F26" s="94"/>
+      <c r="F26" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$24&amp;"', '"&amp;A26&amp;"','"&amp;D26&amp;"','"&amp;B26&amp;"','"&amp;C26&amp;"','"&amp;E26&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('마케팅팀', '2','010-6290-4403','차장','양혜민','ditto17@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G26" s="18">
         <v>13</v>
       </c>
@@ -4050,7 +4005,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="44"/>
-      <c r="F27" s="89"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -4073,21 +4028,21 @@
       </c>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="97" t="s">
         <v>459</v>
       </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="101" t="s">
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="103"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
       <c r="L28" s="18">
         <v>6</v>
       </c>
@@ -4120,7 +4075,10 @@
       <c r="E29" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="88"/>
+      <c r="F29" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$28&amp;"', '"&amp;A29&amp;"','"&amp;D29&amp;"','"&amp;B29&amp;"','"&amp;C29&amp;"','"&amp;E29&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터컨설팅본부', '1','010-3321-5868','전무','서기덕','kdseo@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G29" s="18">
         <v>1</v>
       </c>
@@ -4143,14 +4101,14 @@
       <c r="P29" s="44"/>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="94" t="s">
         <v>462</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="90"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="18">
         <v>2</v>
       </c>
@@ -4166,13 +4124,13 @@
       <c r="K30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="101" t="s">
+      <c r="L30" s="94" t="s">
         <v>461</v>
       </c>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="103"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
@@ -4190,7 +4148,10 @@
       <c r="E31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="88"/>
+      <c r="F31" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$30&amp;"', '"&amp;A31&amp;"','"&amp;D31&amp;"','"&amp;B31&amp;"','"&amp;C31&amp;"','"&amp;E31&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '1','010-3065-2750','전무','안희진','data@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G31" s="18">
         <v>3</v>
       </c>
@@ -4238,7 +4199,10 @@
       <c r="E32" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="88"/>
+      <c r="F32" s="85" t="str">
+        <f t="shared" ref="F32:F44" si="2">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$30&amp;"', '"&amp;A32&amp;"','"&amp;D32&amp;"','"&amp;B32&amp;"','"&amp;C32&amp;"','"&amp;E32&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '2','010-4502-4520','이사','최윤호','hawkeye@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G32" s="18">
         <v>4</v>
       </c>
@@ -4286,7 +4250,10 @@
       <c r="E33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '3','010-9929-0403','이사','이영민','ymlee@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G33" s="18">
         <v>5</v>
       </c>
@@ -4334,7 +4301,10 @@
       <c r="E34" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="88"/>
+      <c r="F34" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '4','010-5244-3568','이사','이영주','yjlee@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G34" s="18">
         <v>6</v>
       </c>
@@ -4382,7 +4352,10 @@
       <c r="E35" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="88"/>
+      <c r="F35" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '5','010-4142-7012','이사','강경완','kwkang@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G35" s="18">
         <v>7</v>
       </c>
@@ -4430,7 +4403,10 @@
       <c r="E36" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="88"/>
+      <c r="F36" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '6','010-4424-2085','이사','이석순','sslee@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G36" s="18">
         <v>8</v>
       </c>
@@ -4478,7 +4454,10 @@
       <c r="E37" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="F37" s="92"/>
+      <c r="F37" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '7','010-8542-8328','수석','이정문','ljmoon@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G37" s="18">
         <v>9</v>
       </c>
@@ -4526,7 +4505,10 @@
       <c r="E38" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F38" s="88"/>
+      <c r="F38" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '8','010-8006-8518','수석','최진우','cjw@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G38" s="18">
         <v>10</v>
       </c>
@@ -4574,7 +4556,10 @@
       <c r="E39" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="88"/>
+      <c r="F39" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '9','010-8695-1321','수석','한청해','bluesea@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G39" s="18">
         <v>11</v>
       </c>
@@ -4622,7 +4607,10 @@
       <c r="E40" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="F40" s="93"/>
+      <c r="F40" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '10','010-7189-1540','수석','김상민','ksm@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G40" s="18">
         <v>12</v>
       </c>
@@ -4670,7 +4658,10 @@
       <c r="E41" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="F41" s="89"/>
+      <c r="F41" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '11','010-5271-1200','책임','김민욱','checkpoint@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G41" s="18">
         <v>13</v>
       </c>
@@ -4718,7 +4709,10 @@
       <c r="E42" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="F42" s="92"/>
+      <c r="F42" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '12','010-3005-2648','책임','장진규','jkjang@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G42" s="18"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -4756,14 +4750,17 @@
       <c r="E43" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="101" t="s">
+      <c r="F43" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '13','010-9300-0716','책임','김시현','shkim0716@en-core.com', NOW(), NOW());</v>
+      </c>
+      <c r="G43" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="103"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="96"/>
       <c r="L43" s="18">
         <v>13</v>
       </c>
@@ -4796,7 +4793,10 @@
       <c r="E44" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="95"/>
+      <c r="F44" s="85" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA1 컨설팅팀', '14','010-8651-6033','전임','안준형','jhan0211@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G44" s="18">
         <v>1</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="92"/>
+      <c r="F45" s="89"/>
       <c r="G45" s="18">
         <v>2</v>
       </c>
@@ -4857,14 +4857,14 @@
       <c r="P45" s="44"/>
     </row>
     <row r="46" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="90"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="87"/>
       <c r="G46" s="18">
         <v>3</v>
       </c>
@@ -4880,13 +4880,13 @@
       <c r="K46" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L46" s="101" t="s">
+      <c r="L46" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="M46" s="102"/>
-      <c r="N46" s="102"/>
-      <c r="O46" s="102"/>
-      <c r="P46" s="103"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="96"/>
     </row>
     <row r="47" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
@@ -4904,7 +4904,7 @@
       <c r="E47" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="88" t="str">
+      <c r="F47" s="85" t="str">
         <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$46&amp;"', '"&amp;A47&amp;"','"&amp;D47&amp;"','"&amp;B47&amp;"','"&amp;C47&amp;"','"&amp;E47&amp;"', NOW(), NOW());"</f>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '1','010-5348-1868','상무','김하정','hjkim@en-core.com', NOW(), NOW());</v>
       </c>
@@ -4955,8 +4955,8 @@
       <c r="E48" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="88" t="str">
-        <f t="shared" ref="F48:F61" si="0">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$46&amp;"', '"&amp;A48&amp;"','"&amp;D48&amp;"','"&amp;B48&amp;"','"&amp;C48&amp;"','"&amp;E48&amp;"', NOW(), NOW());"</f>
+      <c r="F48" s="85" t="str">
+        <f t="shared" ref="F48:F63" si="3">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$46&amp;"', '"&amp;A48&amp;"','"&amp;D48&amp;"','"&amp;B48&amp;"','"&amp;C48&amp;"','"&amp;E48&amp;"', NOW(), NOW());"</f>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '2','010-3294-7130','이사','김형연','hykim@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G48" s="18"/>
@@ -4996,8 +4996,8 @@
       <c r="E49" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F49" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '3','010-9412-6683','이사','안근우','keunwoo.ahn@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G49" s="18">
@@ -5047,8 +5047,8 @@
       <c r="E50" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F50" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '4','010-9925-9805','이사','윤현준','hjyoon@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G50" s="18"/>
@@ -5088,17 +5088,17 @@
       <c r="E51" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F51" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '5','010-2720-7447','수석','정진백','jbjung@en-core.com', NOW(), NOW());</v>
       </c>
-      <c r="G51" s="101" t="s">
+      <c r="G51" s="94" t="s">
         <v>466</v>
       </c>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
-      <c r="K51" s="103"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="96"/>
       <c r="L51" s="5">
         <v>5</v>
       </c>
@@ -5131,8 +5131,8 @@
       <c r="E52" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F52" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F52" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '6','010-6410-1750','수석','조태건','ctg@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G52" s="18">
@@ -5182,8 +5182,8 @@
       <c r="E53" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F53" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F53" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '7','010-4787-7114','수석','위호규','hkwee@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G53" s="5"/>
@@ -5213,24 +5213,24 @@
       <c r="E54" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="F54" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F54" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '8','010-3950-6317','수석','김균도','k2d@en-core.com', NOW(), NOW());</v>
       </c>
-      <c r="G54" s="98" t="s">
+      <c r="G54" s="97" t="s">
         <v>470</v>
       </c>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="98" t="s">
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="97" t="s">
         <v>467</v>
       </c>
-      <c r="M54" s="99"/>
-      <c r="N54" s="99"/>
-      <c r="O54" s="99"/>
-      <c r="P54" s="100"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="99"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18">
@@ -5248,8 +5248,8 @@
       <c r="E55" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F55" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '9','010-4809-0287','수석','노길도','nf@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G55" s="5">
@@ -5299,8 +5299,8 @@
       <c r="E56" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="F56" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F56" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '10','010-4031-3855','책임','김윤전','yunjeon_kim@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G56" s="5">
@@ -5318,13 +5318,13 @@
       <c r="K56" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L56" s="101" t="s">
+      <c r="L56" s="94" t="s">
         <v>471</v>
       </c>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="103"/>
+      <c r="M56" s="95"/>
+      <c r="N56" s="95"/>
+      <c r="O56" s="95"/>
+      <c r="P56" s="96"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18">
@@ -5342,8 +5342,8 @@
       <c r="E57" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F57" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '11','010-3836-9574','선임','박재현','jhpark@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G57" s="5">
@@ -5393,8 +5393,8 @@
       <c r="E58" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="F58" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F58" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '12','010-9814-7005','선임','손미나','mnsohn@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G58" s="5">
@@ -5444,8 +5444,8 @@
       <c r="E59" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F59" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '13','010-3130-2304','선임','오윤정','yj.oh@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G59" s="5">
@@ -5485,8 +5485,8 @@
       <c r="E60" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F60" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F60" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '14','010-7217-2739','전임','신동현','kyleshin@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G60" s="5">
@@ -5504,13 +5504,13 @@
       <c r="K60" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="L60" s="101" t="s">
+      <c r="L60" s="94" t="s">
         <v>472</v>
       </c>
-      <c r="M60" s="104"/>
-      <c r="N60" s="104"/>
-      <c r="O60" s="104"/>
-      <c r="P60" s="103"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="96"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
@@ -5528,8 +5528,8 @@
       <c r="E61" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F61" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="F61" s="85" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DA2 컨설팅팀', '15','010-9355-0924','전임','정영은','jye0924@en-core.com', NOW(), NOW());</v>
       </c>
       <c r="G61" s="5">
@@ -5564,12 +5564,14 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="20"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="92"/>
+      <c r="A62" s="94" t="s">
+        <v>447</v>
+      </c>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="89"/>
       <c r="G62" s="18"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -5592,19 +5594,32 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="20"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="98" t="s">
+      <c r="A63" s="18">
+        <v>1</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$62&amp;"', '"&amp;A63&amp;"','"&amp;D63&amp;"','"&amp;B63&amp;"','"&amp;C63&amp;"','"&amp;E63&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('기술혁신팀', '1','010-2720-4674','상무','황종하','jhhwang@en-core.com', NOW(), NOW());</v>
+      </c>
+      <c r="G63" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="100"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="99"/>
       <c r="L63" s="18">
         <v>6</v>
       </c>
@@ -5622,12 +5637,25 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="20"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="92"/>
+      <c r="A64" s="18">
+        <v>2</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="85" t="str">
+        <f t="shared" ref="F64:F70" si="4">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$62&amp;"', '"&amp;A64&amp;"','"&amp;D64&amp;"','"&amp;B64&amp;"','"&amp;C64&amp;"','"&amp;E64&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('기술혁신팀', '2','010-6244-8858','이사','김중현','jhkim@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G64" s="5">
         <v>1</v>
       </c>
@@ -5650,12 +5678,25 @@
       <c r="P64" s="28"/>
     </row>
     <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="20"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="92"/>
+      <c r="A65" s="20">
+        <v>3</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('기술혁신팀', '3','010-4162-7006','수석','허상철','yenda@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G65" s="5">
         <v>2</v>
       </c>
@@ -5671,21 +5712,34 @@
       <c r="K65" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="L65" s="101" t="s">
+      <c r="L65" s="94" t="s">
         <v>473</v>
       </c>
-      <c r="M65" s="104"/>
-      <c r="N65" s="104"/>
-      <c r="O65" s="104"/>
-      <c r="P65" s="103"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="96"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="20"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="92"/>
+      <c r="A66" s="18">
+        <v>4</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="F66" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('기술혁신팀', '4','010-7102-2559','책임','박윤희','pyh@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G66" s="5">
         <v>3</v>
       </c>
@@ -5718,12 +5772,25 @@
       </c>
     </row>
     <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="20"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="92"/>
+      <c r="A67" s="18">
+        <v>5</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('기술혁신팀', '5','010-8008-3758','책임','최상욱','suchoi@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G67" s="5">
         <v>4</v>
       </c>
@@ -5746,32 +5813,58 @@
       <c r="P67" s="43"/>
     </row>
     <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="20"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="92"/>
+      <c r="A68" s="20">
+        <v>6</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="F68" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('기술혁신팀', '6','010-8975-0313','선임','노유정','yjro@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G68" s="5"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="24"/>
-      <c r="L68" s="101" t="s">
+      <c r="L68" s="94" t="s">
         <v>475</v>
       </c>
-      <c r="M68" s="102"/>
-      <c r="N68" s="102"/>
-      <c r="O68" s="102"/>
-      <c r="P68" s="103"/>
+      <c r="M68" s="100"/>
+      <c r="N68" s="100"/>
+      <c r="O68" s="100"/>
+      <c r="P68" s="96"/>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="20"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="92"/>
+      <c r="A69" s="5">
+        <v>7</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="F69" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('기술혁신팀', '7','010-9898-8065','선임','강민웅','mwkang@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G69" s="18"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -5792,12 +5885,25 @@
       <c r="P69" s="56"/>
     </row>
     <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="20"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="92"/>
+      <c r="A70" s="18">
+        <v>8</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="85" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('기술혁신팀', '8','010-8775-1079','전임','임석진','seokjin@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G70" s="18"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -5818,17 +5924,17 @@
       <c r="P70" s="56"/>
     </row>
     <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="77"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="K71" s="82"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="80"/>
       <c r="L71" s="55">
         <v>10</v>
       </c>
@@ -5844,64 +5950,92 @@
       <c r="P71" s="56"/>
     </row>
     <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="77"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="81"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="82"/>
-      <c r="L72" s="83">
+      <c r="A72" s="94" t="s">
+        <v>454</v>
+      </c>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="81">
         <v>11</v>
       </c>
       <c r="M72" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="N72" s="78" t="s">
+      <c r="N72" s="77" t="s">
         <v>524</v>
       </c>
-      <c r="O72" s="78" t="s">
+      <c r="O72" s="77" t="s">
         <v>529</v>
       </c>
-      <c r="P72" s="84"/>
+      <c r="P72" s="82"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="77"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="83">
+      <c r="A73" s="18">
+        <v>1</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$72&amp;"', '"&amp;A73&amp;"','"&amp;D73&amp;"','"&amp;B73&amp;"','"&amp;C73&amp;"','"&amp;E73&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '1','010-8789-6824','상무','장경상','ksjang@en-core.com', NOW(), NOW());</v>
+      </c>
+      <c r="G73" s="78"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="81">
         <v>12</v>
       </c>
       <c r="M73" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="N73" s="78" t="s">
+      <c r="N73" s="77" t="s">
         <v>525</v>
       </c>
-      <c r="O73" s="78" t="s">
+      <c r="O73" s="77" t="s">
         <v>526</v>
       </c>
-      <c r="P73" s="84"/>
+      <c r="P73" s="82"/>
     </row>
     <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="52"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="97"/>
+      <c r="A74" s="18">
+        <v>2</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="85" t="str">
+        <f t="shared" ref="F74:F85" si="5">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$72&amp;"', '"&amp;A74&amp;"','"&amp;D74&amp;"','"&amp;B74&amp;"','"&amp;C74&amp;"','"&amp;E74&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '2','010-3826-9209','상무','이종인','jilee@en-core.com', NOW(), NOW());</v>
+      </c>
       <c r="G74" s="52"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -5913,8 +6047,2108 @@
       <c r="O74" s="9"/>
       <c r="P74" s="42"/>
     </row>
+    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="18">
+        <v>3</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '3','010-9384-8073','이사','임현아','halim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="18">
+        <v>4</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F76" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '4','010-8525-6556','이사','김병찬','bckim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="18">
+        <v>5</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '5','010-2617-8890','이사','남종철','jcnahm@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="18">
+        <v>6</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '6','010-2447-2661','수석','변범진','beomjin@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="18">
+        <v>7</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '7','010-8726-3525','수석','윤선민','smyun@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="18">
+        <v>8</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '8','010-9257-1924','수석','전현식','skyhyunsik@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="18">
+        <v>9</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F81" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '9','010-6595-4857','책임','이은주','eunju.lee@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="18">
+        <v>10</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="F82" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '10','010-9954-1447','책임','박용진','yjpark@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="18">
+        <v>11</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '11','010-2883-5057','선임','장대영','dyjae@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="18">
+        <v>12</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F84" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '12','010-9493-1016','선임','이지영','jylee@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="18">
+        <v>13</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="F85" s="85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('DB컨설팅팀', '13','010-9368-2982','선임','서석민','sms@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="18"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="96"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="18">
+        <v>1</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$87&amp;"', '"&amp;A88&amp;"','"&amp;D88&amp;"','"&amp;B88&amp;"','"&amp;C88&amp;"','"&amp;E88&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '1','010-2733-7552','상무','오창세','esper@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="18">
+        <v>2</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="85" t="str">
+        <f t="shared" ref="F89:F100" si="6">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$87&amp;"', '"&amp;A89&amp;"','"&amp;D89&amp;"','"&amp;B89&amp;"','"&amp;C89&amp;"','"&amp;E89&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '2','010-7567-1580','상무','신승렬','mrshin@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="18">
+        <v>3</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '3','010-9262-8421','이사','황진기','jkhwang@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="18">
+        <v>4</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F91" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '4','010-2025-7990','이사','노준기','jkno@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="18">
+        <v>5</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '5','010-6529-7810','이사','주영준','yjju@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="18">
+        <v>6</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F93" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '6','010-2933-5938','수석','이진욱','wiz@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="18">
+        <v>7</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '7','010-3347-7448','수석','김자영','jykim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="18">
+        <v>8</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '8','010-2740-1180','수석','이상철','sclee@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="18">
+        <v>9</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '9','010-3446-4808','책임','김도유','dykim729@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="18">
+        <v>10</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F97" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '10','010-9490-6314','책임','김가양','kgy@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="18">
+        <v>11</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="F98" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '11','010-8426-9966','책임','차신암','csa@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="18">
+        <v>12</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="F99" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '12','010-5018-2171','선임','강윤구','aiden@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="18">
+        <v>13</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="F100" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('BI컨설팅팀', '13','010-6451-6634','전임','문혜윤','moonhy@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="44"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="B102" s="95"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="95"/>
+      <c r="E102" s="96"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="18">
+        <v>1</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$102&amp;"', '"&amp;A103&amp;"','"&amp;D103&amp;"','"&amp;B103&amp;"','"&amp;C103&amp;"','"&amp;E103&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('전문위원팀', '1','010-8871-0616','전무','박상용','sypark@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="18">
+        <v>2</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="85" t="str">
+        <f t="shared" ref="F104:F106" si="7">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$102&amp;"', '"&amp;A104&amp;"','"&amp;D104&amp;"','"&amp;B104&amp;"','"&amp;C104&amp;"','"&amp;E104&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('전문위원팀', '2','010-8144-5109','상무','이정수','jslee@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="18">
+        <v>3</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('전문위원팀', '3','010-3701-1755','상무','김성식','sskim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="18">
+        <v>4</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="85" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('전문위원팀', '4','010-2653-8478','상무','김홍규','hkkim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="18"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="43"/>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="18">
+        <v>1</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$102&amp;"', '"&amp;A108&amp;"','"&amp;D108&amp;"','"&amp;B108&amp;"','"&amp;C108&amp;"','"&amp;E108&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('전문위원팀', '1','016-859-0488','사외이사','여정모','yeo@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="18"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="44"/>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="94" t="s">
+        <v>466</v>
+      </c>
+      <c r="B110" s="95"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="95"/>
+      <c r="E110" s="96"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="18">
+        <v>1</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="51"/>
+    </row>
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="B113" s="98"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="99"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="5">
+        <v>1</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="F114" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$113&amp;"', '"&amp;A114&amp;"','"&amp;D114&amp;"','"&amp;B114&amp;"','"&amp;C114&amp;"','"&amp;E114&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터서비스팀', '1','010-3378-5616','이사','서학준','iamhakjun@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="5">
+        <v>2</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="85" t="str">
+        <f t="shared" ref="F115:F120" si="8">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$113&amp;"', '"&amp;A115&amp;"','"&amp;D115&amp;"','"&amp;B115&amp;"','"&amp;C115&amp;"','"&amp;E115&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터서비스팀', '2','010-6212-7214','이사','임춘덕','cdlim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="5">
+        <v>3</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="85" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터서비스팀', '3','010-9141-5868','이사','유혜숙','hsyoo@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="5">
+        <v>4</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="85" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터서비스팀', '4','010-3278-4468','이사','정규수','gsjung@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="5">
+        <v>5</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="F118" s="85" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터서비스팀', '5','010-7370-3321','수석','최준영','jychoi@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="5">
+        <v>6</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E119" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F119" s="85" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터서비스팀', '6','010-9437-0524','전임','서희경','hkseo@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="5">
+        <v>7</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E120" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="F120" s="85" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터서비스팀', '7','010-4303-7771','사원','송서원','swsong@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="18"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="44"/>
+    </row>
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="97" t="s">
+        <v>474</v>
+      </c>
+      <c r="B122" s="98"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="98"/>
+      <c r="E122" s="99"/>
+    </row>
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="5">
+        <v>1</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F123" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$122&amp;"', '"&amp;A123&amp;"','"&amp;D123&amp;"','"&amp;B123&amp;"','"&amp;C123&amp;"','"&amp;E123&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터카뎃팀', '1','010-6573-2577','선임','이상윤','luckyyun@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="5">
+        <v>2</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="F124" s="85" t="str">
+        <f t="shared" ref="F124:F126" si="9">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$122&amp;"', '"&amp;A124&amp;"','"&amp;D124&amp;"','"&amp;B124&amp;"','"&amp;C124&amp;"','"&amp;E124&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터카뎃팀', '2','010-5159-2356','사원','김지수','jeesoo.kim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="5">
+        <v>3</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="F125" s="85" t="str">
+        <f t="shared" si="9"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터카뎃팀', '3','010-5291-1165','사원','박도건','pakdo@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="5">
+        <v>4</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F126" s="85" t="str">
+        <f t="shared" si="9"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('데이터카뎃팀', '4','010-2031-3581','사원','김예진','kimyj453@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="91" t="s">
+        <v>448</v>
+      </c>
+      <c r="B128" s="92"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="93"/>
+    </row>
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="18">
+        <v>1</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="F129" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$128&amp;"', '"&amp;A129&amp;"','"&amp;D129&amp;"','"&amp;B129&amp;"','"&amp;C129&amp;"','"&amp;E129&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('전략사업본부', '1','010-2262-8545','전무','김범','bkim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="94" t="s">
+        <v>450</v>
+      </c>
+      <c r="B130" s="95"/>
+      <c r="C130" s="95"/>
+      <c r="D130" s="95"/>
+      <c r="E130" s="96"/>
+    </row>
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="20">
+        <v>1</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="85" t="str">
+        <f>"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$130&amp;"', '"&amp;A131&amp;"','"&amp;D131&amp;"','"&amp;B131&amp;"','"&amp;C131&amp;"','"&amp;E131&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '1','010-6367-3724','이사','최찬식','cschoi@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="20">
+        <v>2</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="85" t="str">
+        <f t="shared" ref="F132:F145" si="10">"INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('"&amp;$A$130&amp;"', '"&amp;A132&amp;"','"&amp;D132&amp;"','"&amp;B132&amp;"','"&amp;C132&amp;"','"&amp;E132&amp;"', NOW(), NOW());"</f>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '2','010-5389-7844','이사','김철기','ckkim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="20">
+        <v>3</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '3','010-5144-6690','이사','장명수','insomnia@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="20">
+        <v>4</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F134" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '4','010-9257-8222','수석','임선호','shlim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="20">
+        <v>5</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F135" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '5','010-7405-7704','수석','정민수','msjung@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="20">
+        <v>6</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E136" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F136" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '6','010-3310-6744','수석','이경희','khlee@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="20">
+        <v>7</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F137" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '7','010-6796-0025','수석','김기동','kkd@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="20">
+        <v>8</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '8','010-2166-0810','수석','최광회','ckhoi@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="20">
+        <v>9</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E139" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F139" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '9','010-9156-8487','선임','김기현','khkim@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="20">
+        <v>10</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E140" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="F140" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '10','010-9536-5182','선임','정희정','heejung@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="20">
+        <v>11</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E141" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F141" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '11','010-3280-7507','선임','오지환','wlghks324@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="5">
+        <v>12</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E142" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="F142" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '12','010-3524-1036','전임','류종현','rjh211@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="20">
+        <v>13</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E143" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="F143" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '13','010-2498-8765','사원','정상완','jsw@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="5">
+        <v>14</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E144" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="F144" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '14','010-3745-4458','사원','홍혜린','hrhong@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="81">
+        <v>15</v>
+      </c>
+      <c r="B145" s="77" t="s">
+        <v>527</v>
+      </c>
+      <c r="C145" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="D145" s="77" t="s">
+        <v>520</v>
+      </c>
+      <c r="E145" s="82" t="s">
+        <v>521</v>
+      </c>
+      <c r="F145" s="85" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO TB_EMP (DEPT, EMP_NO, PASSWD, MNG_LVL, EMP_NM, EMAIL, REG_DTM, MOD_DTM) VALUES ('SDR팀', '15','010-4914-1515','사원','정지해','jjh@en-core.com', NOW(), NOW());</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="20"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="43"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="94" t="s">
+        <v>457</v>
+      </c>
+      <c r="B147" s="95"/>
+      <c r="C147" s="95"/>
+      <c r="D147" s="95"/>
+      <c r="E147" s="96"/>
+    </row>
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="18">
+        <v>1</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="18">
+        <v>2</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="18">
+        <v>3</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="E150" s="54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="18">
+        <v>4</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="18">
+        <v>5</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="18">
+        <v>6</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E153" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="18"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="44"/>
+    </row>
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="94" t="s">
+        <v>461</v>
+      </c>
+      <c r="B155" s="95"/>
+      <c r="C155" s="95"/>
+      <c r="D155" s="95"/>
+      <c r="E155" s="96"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="18">
+        <v>1</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="18">
+        <v>2</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="18">
+        <v>3</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D158" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="18">
+        <v>4</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E159" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="18">
+        <v>5</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="18">
+        <v>6</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E161" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="18">
+        <v>7</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D162" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E162" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="18">
+        <v>8</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E163" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="18">
+        <v>9</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E164" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="18">
+        <v>10</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E165" s="53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="18">
+        <v>11</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E166" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="18">
+        <v>12</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="18">
+        <v>13</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E168" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="18">
+        <v>14</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E169" s="53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="18"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="44"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="94" t="s">
+        <v>465</v>
+      </c>
+      <c r="B171" s="100"/>
+      <c r="C171" s="100"/>
+      <c r="D171" s="100"/>
+      <c r="E171" s="96"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="55">
+        <v>1</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E172" s="56" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="55">
+        <v>2</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E173" s="56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="55">
+        <v>3</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E174" s="56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="5">
+        <v>4</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E175" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="5">
+        <v>5</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="5">
+        <v>6</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E177" s="51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="20"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="43"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="97" t="s">
+        <v>467</v>
+      </c>
+      <c r="B179" s="98"/>
+      <c r="C179" s="98"/>
+      <c r="D179" s="98"/>
+      <c r="E179" s="99"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="18">
+        <v>1</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E180" s="28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="94" t="s">
+        <v>471</v>
+      </c>
+      <c r="B181" s="95"/>
+      <c r="C181" s="95"/>
+      <c r="D181" s="95"/>
+      <c r="E181" s="96"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="18">
+        <v>2</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E182" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="5">
+        <v>3</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="5"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="24"/>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="94" t="s">
+        <v>472</v>
+      </c>
+      <c r="B185" s="95"/>
+      <c r="C185" s="95"/>
+      <c r="D185" s="95"/>
+      <c r="E185" s="96"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="18">
+        <v>4</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="18">
+        <v>5</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E187" s="30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="18">
+        <v>6</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E188" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="18"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="28"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="94" t="s">
+        <v>473</v>
+      </c>
+      <c r="B190" s="95"/>
+      <c r="C190" s="95"/>
+      <c r="D190" s="95"/>
+      <c r="E190" s="96"/>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="18">
+        <v>7</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E191" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="20"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="43"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="94" t="s">
+        <v>475</v>
+      </c>
+      <c r="B193" s="100"/>
+      <c r="C193" s="100"/>
+      <c r="D193" s="100"/>
+      <c r="E193" s="96"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="55">
+        <v>8</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E194" s="56"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="55">
+        <v>9</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E195" s="56"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="55">
+        <v>10</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E196" s="56"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="81">
+        <v>11</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C197" s="77" t="s">
+        <v>524</v>
+      </c>
+      <c r="D197" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="E197" s="82"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="81">
+        <v>12</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C198" s="77" t="s">
+        <v>525</v>
+      </c>
+      <c r="D198" s="77" t="s">
+        <v>526</v>
+      </c>
+      <c r="E198" s="82"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="44">
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A181:E181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="L65:P65"/>
+    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="G51:K51"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="L56:P56"/>
@@ -5931,17 +8165,6 @@
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="L65:P65"/>
-    <mergeCell ref="L68:P68"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="G54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5957,12 +8180,17 @@
     <hyperlink ref="P4" r:id="rId10" display="zbw@en-core.com"/>
     <hyperlink ref="E40" r:id="rId11" display="nf@en-core.com"/>
     <hyperlink ref="K56" r:id="rId12" display="jychoi@en-core.com"/>
+    <hyperlink ref="E81" r:id="rId13" display="jychoi@en-core.com"/>
+    <hyperlink ref="E83" r:id="rId14" display="jychoi@en-core.com"/>
+    <hyperlink ref="E91" r:id="rId15"/>
+    <hyperlink ref="E97" r:id="rId16"/>
+    <hyperlink ref="E115" r:id="rId17" display="jychoi@en-core.com"/>
+    <hyperlink ref="E129" r:id="rId18" display="zbw@en-core.com"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.27559055118110237" footer="0.35433070866141736"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId19"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -6066,29 +8294,29 @@
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="101" t="s">
         <v>447</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104" t="s">
         <v>448</v>
       </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="106"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>515</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="107"/>
       <c r="F4" s="34">
         <v>1</v>
       </c>
@@ -6137,13 +8365,13 @@
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="60"/>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="103"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -6212,13 +8440,13 @@
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="108" t="s">
         <v>512</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="34">
         <v>5</v>
       </c>
@@ -6243,13 +8471,13 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="103"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="35">
         <v>6</v>
       </c>
@@ -6338,13 +8566,13 @@
       <c r="O11" s="72"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="101" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="110"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="38"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -6374,13 +8602,13 @@
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="60"/>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="101" t="s">
         <v>454</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="35">
         <v>8</v>
       </c>
@@ -6497,13 +8725,13 @@
       <c r="O16" s="69"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="104" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
       <c r="F17" s="34">
         <v>4</v>
       </c>
@@ -6528,13 +8756,13 @@
       <c r="O17" s="64"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="101" t="s">
         <v>456</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
       <c r="F18" s="34">
         <v>5</v>
       </c>
@@ -6680,13 +8908,13 @@
       </c>
       <c r="I22" s="61"/>
       <c r="J22" s="67"/>
-      <c r="K22" s="108" t="s">
+      <c r="K22" s="101" t="s">
         <v>457</v>
       </c>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="110"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="103"/>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
@@ -6718,13 +8946,13 @@
       <c r="O23" s="60"/>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="101" t="s">
         <v>458</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
       <c r="F24" s="34">
         <v>11</v>
       </c>
@@ -6842,20 +9070,20 @@
       <c r="O27" s="72"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="104" t="s">
         <v>459</v>
       </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="108" t="s">
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="101" t="s">
         <v>460</v>
       </c>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="110"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="103"/>
       <c r="K28" s="34">
         <v>6</v>
       </c>
@@ -6900,13 +9128,13 @@
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="101" t="s">
         <v>462</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="34">
         <v>2</v>
       </c>
@@ -6918,13 +9146,13 @@
       </c>
       <c r="I30" s="34"/>
       <c r="J30" s="60"/>
-      <c r="K30" s="108" t="s">
+      <c r="K30" s="101" t="s">
         <v>461</v>
       </c>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="110"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="103"/>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34">
@@ -7352,13 +9580,13 @@
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="74"/>
-      <c r="F43" s="108" t="s">
+      <c r="F43" s="101" t="s">
         <v>463</v>
       </c>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="110"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
       <c r="K43" s="34">
         <v>13</v>
       </c>
@@ -7430,13 +9658,13 @@
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="101" t="s">
         <v>464</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="110"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="103"/>
       <c r="F46" s="34">
         <v>3</v>
       </c>
@@ -7448,13 +9676,13 @@
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="60"/>
-      <c r="K46" s="108" t="s">
+      <c r="K46" s="101" t="s">
         <v>465</v>
       </c>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="110"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="103"/>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34">
@@ -7596,13 +9824,13 @@
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="60"/>
-      <c r="F51" s="108" t="s">
+      <c r="F51" s="101" t="s">
         <v>466</v>
       </c>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="103"/>
       <c r="K51" s="38">
         <v>5</v>
       </c>
@@ -7685,20 +9913,20 @@
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="59"/>
-      <c r="F54" s="111" t="s">
+      <c r="F54" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="111" t="s">
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="104" t="s">
         <v>467</v>
       </c>
-      <c r="L54" s="112"/>
-      <c r="M54" s="112"/>
-      <c r="N54" s="112"/>
-      <c r="O54" s="113"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="106"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="34">
@@ -7758,13 +9986,13 @@
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="61"/>
-      <c r="K56" s="108" t="s">
+      <c r="K56" s="101" t="s">
         <v>471</v>
       </c>
-      <c r="L56" s="109"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="109"/>
-      <c r="O56" s="110"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="103"/>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="34">
@@ -7888,13 +10116,13 @@
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="68"/>
-      <c r="K60" s="108" t="s">
+      <c r="K60" s="101" t="s">
         <v>472</v>
       </c>
-      <c r="L60" s="109"/>
-      <c r="M60" s="109"/>
-      <c r="N60" s="109"/>
-      <c r="O60" s="110"/>
+      <c r="L60" s="102"/>
+      <c r="M60" s="102"/>
+      <c r="N60" s="102"/>
+      <c r="O60" s="103"/>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="34">
@@ -7960,13 +10188,13 @@
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
-      <c r="F63" s="111" t="s">
+      <c r="F63" s="104" t="s">
         <v>474</v>
       </c>
-      <c r="G63" s="112"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="113"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="106"/>
       <c r="K63" s="34">
         <v>6</v>
       </c>
@@ -8019,13 +10247,13 @@
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="61"/>
-      <c r="K65" s="108" t="s">
+      <c r="K65" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="L65" s="109"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="109"/>
-      <c r="O65" s="110"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="103"/>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="35"/>
@@ -8090,13 +10318,13 @@
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
       <c r="J68" s="34"/>
-      <c r="K68" s="108" t="s">
+      <c r="K68" s="101" t="s">
         <v>475</v>
       </c>
-      <c r="L68" s="109"/>
-      <c r="M68" s="109"/>
-      <c r="N68" s="109"/>
-      <c r="O68" s="110"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="102"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="103"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="35"/>
@@ -8232,22 +10460,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="A30:E30"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="K46:O46"/>
@@ -8259,6 +10471,22 @@
     <mergeCell ref="K60:O60"/>
     <mergeCell ref="F63:J63"/>
     <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
